--- a/suspended_wire/200624/Bi2Te3_0617_power dep_f3p4.XLSX
+++ b/suspended_wire/200624/Bi2Te3_0617_power dep_f3p4.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Documents\phd dell files\measurement_codes\suspended_wire\200624\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466A792-7AE3-4ED4-AEC1-3E040AEFAA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8A0171-B6C6-47F2-AC33-3460C861BD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -241,17 +241,11 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3216,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3235,14 +3235,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="18"/>
       <c r="J1" t="s">
         <v>18</v>
       </c>
@@ -3278,16 +3278,16 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>3.105</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -3325,13 +3325,13 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3340,7 +3340,7 @@
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -3364,19 +3364,19 @@
       <c r="E4" s="4">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f>N4*1000000</f>
         <v>-1.39699E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <f>O4*1000000</f>
         <v>-2.7939799999999997E-3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <f>P4*1000</f>
         <v>0.52452500000000002</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <f>Q4*1000</f>
         <v>0</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="O4" s="5">
         <v>-2.7939799999999999E-9</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>5.2452499999999997E-4</v>
       </c>
       <c r="Q4" s="1">
@@ -3418,19 +3418,19 @@
       <c r="E5" s="4">
         <v>50</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F18" si="1">N5*1000000</f>
         <v>0.36787399999999998</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G18" si="2">O5*1000000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f t="shared" ref="H5:H18" si="3">P5*1000</f>
         <v>2.59782</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f t="shared" ref="I5:I18" si="4">Q5*1000</f>
         <v>-3.8147299999999997E-3</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>2.5978199999999998E-3</v>
       </c>
       <c r="Q5" s="5">
@@ -3472,19 +3472,19 @@
       <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>1.6344800000000002</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>4.4703699999999999E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <f t="shared" si="3"/>
         <v>5.21854</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>-7.6294500000000003E-3</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="O6" s="5">
         <v>4.4703699999999998E-8</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>5.2185399999999998E-3</v>
       </c>
       <c r="Q6" s="5">
@@ -3526,19 +3526,19 @@
       <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>2.0740700000000003</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>3.9115799999999999E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f t="shared" si="3"/>
         <v>7.8125599999999995</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>-9.5367999999999998E-3</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="O7" s="5">
         <v>3.91158E-8</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <v>7.8125599999999996E-3</v>
       </c>
       <c r="Q7" s="5">
@@ -3580,19 +3580,19 @@
       <c r="E8" s="4">
         <v>50</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>2.3199399999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>0.10989699999999999</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f t="shared" si="3"/>
         <v>10.4504</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f t="shared" si="4"/>
         <v>-1.3351500000000001E-2</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="O8" s="5">
         <v>1.0989699999999999E-7</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <v>1.04504E-2</v>
       </c>
       <c r="Q8" s="5">
@@ -3634,19 +3634,19 @@
       <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>2.4484600000000003</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>0.227244</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f t="shared" si="3"/>
         <v>13.0616</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f t="shared" si="4"/>
         <v>-1.5258900000000001E-2</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="O9" s="5">
         <v>2.2724399999999999E-7</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="9">
         <v>1.30616E-2</v>
       </c>
       <c r="Q9" s="5">
@@ -3672,35 +3672,35 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>0.3</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>5.2122000000000002</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>100</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>20</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>50</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>2.2845499999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>0.43865500000000002</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f t="shared" si="3"/>
         <v>15.636600000000001</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <f t="shared" si="4"/>
         <v>-1.90736E-2</v>
       </c>
@@ -3712,49 +3712,49 @@
         <f t="shared" si="6"/>
         <v>1.4159998771984802E-7</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>2.28455E-6</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>4.3865500000000001E-7</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="13">
         <v>1.56366E-2</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="12">
         <v>-1.90736E-5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>0.35</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>6.0863999999999994</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>100</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>50</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
         <v>2.3981700000000004</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>0.72457300000000002</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
         <v>18.2592</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f t="shared" si="4"/>
         <v>-2.28883E-2</v>
       </c>
@@ -3766,49 +3766,49 @@
         <f t="shared" si="6"/>
         <v>2.2546621425254398E-7</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <v>2.3981700000000002E-6</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <v>7.2457300000000001E-7</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="15">
         <v>1.82592E-2</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <v>-2.2888299999999999E-5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>0.5</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>8.6975333333333342</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>100</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>20</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>50</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>2.5695300000000003</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>1.74996</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
         <v>26.092600000000001</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <f t="shared" si="4"/>
         <v>-3.0517800000000001E-2</v>
       </c>
@@ -3820,49 +3820,49 @@
         <f t="shared" si="6"/>
         <v>6.579430527889918E-7</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <v>2.5695300000000001E-6</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="16">
         <v>1.7499599999999999E-6</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="15">
         <v>2.6092600000000001E-2</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <v>-3.0517800000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>0.7</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>12.152433333333333</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>100</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>20</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>50</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>0.33993499999999999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>4.8447700000000005</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
         <v>36.457299999999996</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>-4.1961900000000003E-2</v>
       </c>
@@ -3874,49 +3874,49 @@
         <f t="shared" si="6"/>
         <v>1.7946912350889076E-6</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="16">
         <v>3.3993499999999998E-7</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="16">
         <v>4.8447700000000002E-6</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="15">
         <v>3.6457299999999998E-2</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="16">
         <v>-4.1961900000000002E-5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>0.9</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>15.493466666666665</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>100</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>20</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>50</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>-1.41096</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>9.4064200000000007</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <f t="shared" si="3"/>
         <v>46.480399999999996</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>-5.3406000000000002E-2</v>
       </c>
@@ -3928,49 +3928,49 @@
         <f t="shared" si="6"/>
         <v>3.7191680845477942E-6</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="16">
         <v>-1.4109600000000001E-6</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="16">
         <v>9.40642E-6</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="15">
         <v>4.6480399999999998E-2</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="16">
         <v>-5.3406000000000003E-5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>19.099</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>100</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>50</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>100</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>-3.6787399999999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>19.362299999999998</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <f t="shared" si="3"/>
         <v>57.297000000000004</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <f t="shared" si="4"/>
         <v>-6.866499999999999E-2</v>
       </c>
@@ -3982,49 +3982,49 @@
         <f t="shared" si="6"/>
         <v>6.9667766272990017E-6</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="16">
         <v>-3.6787399999999999E-6</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="16">
         <v>1.9362299999999999E-5</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="15">
         <v>5.7297000000000001E-2</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="16">
         <v>-6.8664999999999994E-5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>1.3</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>22.5641</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>100</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>50</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>100</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <f t="shared" si="1"/>
         <v>-7.0985699999999996</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
         <v>32.078700000000005</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <f t="shared" si="3"/>
         <v>67.692300000000003</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>-8.0109099999999989E-2</v>
       </c>
@@ -4036,49 +4036,49 @@
         <f t="shared" si="6"/>
         <v>1.1488254483049722E-5</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="16">
         <v>-7.0985699999999997E-6</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="16">
         <v>3.2078700000000002E-5</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="15">
         <v>6.7692299999999997E-2</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="16">
         <v>-8.0109099999999995E-5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>1.5</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>26.031666666666666</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>100</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>100</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>100</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
         <v>-11.3696</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>49.4758</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f t="shared" si="3"/>
         <v>78.094999999999999</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <f t="shared" si="4"/>
         <v>-9.1553200000000001E-2</v>
       </c>
@@ -4090,49 +4090,49 @@
         <f t="shared" si="6"/>
         <v>1.7640298248421291E-5</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="16">
         <v>-1.13696E-5</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="16">
         <v>4.9475799999999998E-5</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="15">
         <v>7.8094999999999998E-2</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="16">
         <v>-9.1553199999999996E-5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>1.7</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>29.496666666666666</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>100</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>100</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>100</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>-16.976299999999998</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>72.319500000000005</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <f t="shared" si="3"/>
         <v>88.49</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <f t="shared" si="4"/>
         <v>-0.10299700000000001</v>
       </c>
@@ -4144,16 +4144,16 @@
         <f t="shared" si="6"/>
         <v>2.5663673483296301E-5</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="16">
         <v>-1.6976299999999999E-5</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="16">
         <v>7.2319500000000004E-5</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="15">
         <v>8.8489999999999999E-2</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="15">
         <v>-1.02997E-4</v>
       </c>
     </row>
